--- a/FYP-results/Baseline_Results/EvaluationMetrics.xlsx
+++ b/FYP-results/Baseline_Results/EvaluationMetrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackyboy/Desktop/PythonCryptoPrediction/FYP-results/Baseline_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFD63D-2250-0342-8C0E-3280E20901BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61020B4F-3587-5148-86E5-7273495D05CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1F5488E5-3192-D841-9991-E440C7A2F77A}"/>
+    <workbookView xWindow="14060" yWindow="500" windowWidth="14040" windowHeight="17500" xr2:uid="{1F5488E5-3192-D841-9991-E440C7A2F77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E556151-BDE4-9F47-9B26-B95EBB299ABF}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
-        <v>31</v>
+        <v>3.1026800206931202E-2</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>5</v>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>7.6300000000000007E-2</v>
+        <v>2.6150237325914299E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">

--- a/FYP-results/Baseline_Results/EvaluationMetrics.xlsx
+++ b/FYP-results/Baseline_Results/EvaluationMetrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackyboy/Desktop/PythonCryptoPrediction/FYP-results/Baseline_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61020B4F-3587-5148-86E5-7273495D05CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B22D5-F7D6-1C47-BF07-D84E2204C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="500" windowWidth="14040" windowHeight="17500" xr2:uid="{1F5488E5-3192-D841-9991-E440C7A2F77A}"/>
+    <workbookView xWindow="16320" yWindow="500" windowWidth="14040" windowHeight="17500" xr2:uid="{1F5488E5-3192-D841-9991-E440C7A2F77A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -912,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>2.6100000000000002E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
